--- a/documentation/atb_xml_doc_v221024.xlsx
+++ b/documentation/atb_xml_doc_v221024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="transcription" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="419">
   <si>
     <t xml:space="preserve">element</t>
   </si>
@@ -624,6 +624,15 @@
   </si>
   <si>
     <t xml:space="preserve">letters added by editors to expand an abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abbreviation marker, marking up an abbreviation without expanding it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be temporary</t>
   </si>
   <si>
     <t xml:space="preserve">supplied</t>
@@ -1371,16 +1380,16 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.53"/>
   </cols>
@@ -1972,12 +1981,12 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.2"/>
@@ -2494,7 +2503,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
@@ -2804,19 +2813,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.53"/>
@@ -2903,7 +2912,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>200</v>
       </c>
@@ -2913,166 +2922,166 @@
       <c r="E6" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>205</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>209</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>87</v>
+        <v>214</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>70</v>
+        <v>222</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>83</v>
+      <c r="D19" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,7 +3089,10 @@
         <v>80</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,10 +3100,18 @@
         <v>80</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>224</v>
+      <c r="C22" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3118,11 +3138,11 @@
       <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.54"/>
@@ -3134,25 +3154,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,19 +3180,19 @@
         <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>80</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,22 +3200,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>80</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,25 +3223,25 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>80</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,19 +3249,19 @@
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>80</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,19 +3269,19 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,22 +3289,22 @@
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,22 +3312,22 @@
         <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,22 +3335,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3338,22 +3358,22 @@
         <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,25 +3381,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,19 +3407,19 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,19 +3427,19 @@
         <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,22 +3447,22 @@
         <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,19 +3470,19 @@
         <v>35</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,19 +3490,19 @@
         <v>35</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,16 +3513,16 @@
         <v>33</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,19 +3530,19 @@
         <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>271</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,19 +3550,19 @@
         <v>43</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,16 +3570,16 @@
         <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,19 +3587,19 @@
         <v>43</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,19 +3607,19 @@
         <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,16 +3630,16 @@
         <v>49</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,10 +3650,10 @@
         <v>42</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,13 +3661,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,13 +3675,13 @@
         <v>45</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,13 +3689,13 @@
         <v>45</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>288</v>
-      </c>
       <c r="H27" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,13 +3703,13 @@
         <v>45</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,19 +3717,19 @@
         <v>19</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,19 +3737,19 @@
         <v>19</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>296</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,19 +3757,19 @@
         <v>19</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,19 +3777,19 @@
         <v>19</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,19 +3797,19 @@
         <v>19</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,19 +3817,19 @@
         <v>19</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,19 +3837,19 @@
         <v>19</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,19 +3857,19 @@
         <v>19</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,19 +3877,19 @@
         <v>19</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,22 +3897,22 @@
         <v>19</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,19 +3920,19 @@
         <v>19</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,19 +3940,19 @@
         <v>19</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,19 +3960,19 @@
         <v>19</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,19 +3980,19 @@
         <v>19</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,19 +4000,19 @@
         <v>19</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,16 +4020,16 @@
         <v>19</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4020,19 +4040,19 @@
         <v>19</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,22 +4063,22 @@
         <v>19</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E46" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>341</v>
-      </c>
       <c r="G46" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,22 +4089,22 @@
         <v>19</v>
       </c>
       <c r="C47" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>342</v>
-      </c>
       <c r="H47" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,16 +4115,16 @@
         <v>142</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,22 +4132,22 @@
         <v>21</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,19 +4155,19 @@
         <v>21</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,19 +4175,19 @@
         <v>21</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,22 +4195,22 @@
         <v>21</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,25 +4218,25 @@
         <v>21</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,22 +4244,22 @@
         <v>21</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>369</v>
-      </c>
       <c r="H54" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,19 +4267,19 @@
         <v>43</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,19 +4287,19 @@
         <v>43</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,19 +4307,19 @@
         <v>21</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,16 +4327,16 @@
         <v>21</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,13 +4347,13 @@
         <v>76</v>
       </c>
       <c r="E59" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>382</v>
-      </c>
       <c r="H59" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,16 +4364,16 @@
         <v>65</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,16 +4384,16 @@
         <v>24</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,10 +4404,10 @@
         <v>132</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,13 +4415,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,13 +4429,13 @@
         <v>62</v>
       </c>
       <c r="C64" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="H64" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,13 +4443,13 @@
         <v>62</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H65" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,13 +4457,13 @@
         <v>62</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,13 +4471,13 @@
         <v>62</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,13 +4485,13 @@
         <v>62</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,13 +4499,13 @@
         <v>62</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,13 +4513,13 @@
         <v>62</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,13 +4527,13 @@
         <v>62</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,13 +4541,13 @@
         <v>62</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,13 +4555,13 @@
         <v>62</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,13 +4569,13 @@
         <v>62</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,13 +4583,13 @@
         <v>62</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,13 +4597,13 @@
         <v>62</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,16 +4611,16 @@
         <v>62</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,13 +4628,13 @@
         <v>62</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,13 +4642,13 @@
         <v>62</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,13 +4656,13 @@
         <v>62</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,13 +4670,13 @@
         <v>62</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4664,13 +4684,13 @@
         <v>62</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4681,10 +4701,10 @@
         <v>19</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,13 +4712,13 @@
         <v>62</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,13 +4726,13 @@
         <v>62</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,13 +4740,13 @@
         <v>62</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,13 +4754,13 @@
         <v>62</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
